--- a/src/main/resources/DisplayRules_v8.xlsx
+++ b/src/main/resources/DisplayRules_v8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\DataGen\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9871,8 +9871,8 @@
   <dimension ref="A1:S448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13154,7 +13154,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="276" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="288" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>1156</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="84" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="96" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>1156</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="84" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>1156</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
         <v>1156</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="192" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="204" x14ac:dyDescent="0.25">
       <c r="A168" s="20" t="s">
         <v>1156</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="84" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
         <v>1157</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>1157</v>
       </c>
@@ -20775,7 +20775,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="132" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="144" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
         <v>1157</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="132" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>1157</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="108" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
         <v>1157</v>
       </c>
@@ -32568,7 +32568,7 @@
       </c>
       <c r="S444" s="12"/>
     </row>
-    <row r="445" spans="1:19" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
         <v>1153</v>
       </c>
